--- a/data/georgia_census/samegrelo/walenjixa/education_graduates.xlsx
+++ b/data/georgia_census/samegrelo/walenjixa/education_graduates.xlsx
@@ -1836,13 +1836,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8E06D1-2760-48E1-A20C-D442BDF4DC0D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FBAF7F5-8DB5-413D-B5B9-127773DE5364}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1179BFC-E924-4B5E-B00D-9E9228AFB2A0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{917FC6F9-1B98-41D1-8903-F6AD19A86644}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B9016CF-6B53-496E-9320-DA424FE2C532}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D4B0B3C-0C4D-4B6C-8F12-11441C08CAB2}"/>
 </file>